--- a/Test import file/Phòng thi/Danh sách phòng thi đủ dữ liệu.xlsx
+++ b/Test import file/Phòng thi/Danh sách phòng thi đủ dữ liệu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Test import file\Phòng thi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KhoaLuan2020\Test import file\Phòng thi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Phòng 413 G3</t>
+  </si>
+  <si>
+    <t>Đại học ngoại ngữ</t>
+  </si>
+  <si>
+    <t>Đại học KHTN</t>
+  </si>
+  <si>
+    <t>Đại học kinh tế</t>
   </si>
 </sst>
 </file>
@@ -604,7 +613,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -721,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -751,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -766,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E10" s="12"/>
     </row>
@@ -781,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E11" s="12"/>
     </row>
@@ -796,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E12" s="12"/>
     </row>
